--- a/WMP25/SDGE Response MGRA-SDGE-2025WMP-03_Q3_TUGCustomers2023-jwm.xlsx
+++ b/WMP25/SDGE Response MGRA-SDGE-2025WMP-03_Q3_TUGCustomers2023-jwm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3DECD-4EAF-DD40-9A6D-3F5E970C872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0171B8-E066-2649-8AC1-D313C2457AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-18860" windowWidth="29040" windowHeight="15840" xr2:uid="{E183052E-CDF7-4422-82CD-9FB90B2A0C91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{E183052E-CDF7-4422-82CD-9FB90B2A0C91}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="123">
   <si>
     <t>(a) Project ID - 1</t>
   </si>
@@ -396,6 +418,15 @@
   </si>
   <si>
     <t>Customer minutes</t>
+  </si>
+  <si>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>Log Cost</t>
+  </si>
+  <si>
+    <t>Binned Log Cost</t>
   </si>
 </sst>
 </file>
@@ -405,7 +436,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -513,10 +544,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -527,7 +557,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -537,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -547,25 +577,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -616,7 +637,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -634,6 +655,12 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -645,6 +672,1072 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SDGE 2023 LOG10 Cost $/min </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Averted PSPS per Customer-Circuit Segment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Final!$Q$5:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Final!$R$5:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E83F-8745-AF95-464D2DF059E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="776336448"/>
+        <c:axId val="795698128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="776336448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log 10 $</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795698128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795698128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Circuit Segments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776336448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FFDADC-CB2D-36ED-490C-7857CEB0102B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,7 +2567,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DDCEAD5-33EC-9A4F-8C35-A944C4189909}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Circuit Segment">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DDCEAD5-33EC-9A4F-8C35-A944C4189909}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Circuit Segment">
   <location ref="A3:F22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -1655,10 +2748,10 @@
     <dataField name="Sum of Minutes of PSPS Outage by Circuit" fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="18">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1685,7 +2778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B1EA2D4-DFEE-4A4C-9BCA-A600497EEA3E}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B1EA2D4-DFEE-4A4C-9BCA-A600497EEA3E}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -1878,29 +2971,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7636106B-54FB-44EA-9D7E-AFC41BEF02E3}" name="Table1" displayName="Table1" ref="A1:S34" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7636106B-54FB-44EA-9D7E-AFC41BEF02E3}" name="Table1" displayName="Table1" ref="A1:S34" totalsRowShown="0" headerRowDxfId="16">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q34">
     <sortCondition ref="B1:B34"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{880780C6-114D-4AD9-A07D-F9E9ACDCD292}" name="(a) Project ID - 1"/>
     <tableColumn id="2" xr3:uid="{F9B34887-5BA6-4530-8B6B-7C8E82747336}" name="(b) Circuit ID"/>
-    <tableColumn id="3" xr3:uid="{53241746-01E2-4FCE-8089-00FBF4850812}" name="(c) Circuit Segment ID Entirely Underground" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{FFC1EE45-BB72-49F2-8E4D-8A7D3231D4F3}" name="(d) Circuit Segment ID Partially Underground" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{C5D0B29B-3A85-4618-BDEB-E2A9077F9BEE}" name="(e) County" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C844F8F7-CAE4-40FE-8F62-B0937E95EA8B}" name="(f) Project Start Date - 2" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{57D484DB-5422-4DF9-A549-F137C4B1FF5D}" name="(g) Project Completion Date - 3" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{9840405D-D512-47BC-A469-4CF7A5C05DF6}" name="(h) Total Overhead Miles Removed - 4" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{14247499-7E71-48AB-8AD8-79587D943A4C}" name="(i) Total Cable Miles Installed - 5" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{ADEE8B42-E459-41B9-80ED-E5C0E33F742F}" name="(j) Total Trench Miles  - 6" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{CE3C9479-1658-4014-913B-CA1043B75EB7}" name="(k) Total Electric Cost - 7" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{35538AD6-2AA1-497B-9D02-8AEC6C97AB7E}" name="(l) Total Cost - Inc Non-Electric Utilities - 8" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{988CE22B-F098-426E-AF9B-6588316B1E23}" name="(m) Rule 20?" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{69BAD8E3-83D0-4EA1-9B1F-B50037BA4D14}" name="(n) WMP?" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{47B49D9A-50DB-4EB9-81A4-F4B540165DED}" name="Post-wildfire Rebuild?" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{6766DD01-E7A9-419A-AC60-E52A94B56EB1}" name="Shared Trench with Com?" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{37727CAE-8840-4266-BB51-A44E262B85E9}" name="Shared Trench with Gas?" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{7B8118E6-A8EC-412A-A71F-11941CE2584C}" name="Total Customers" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{53241746-01E2-4FCE-8089-00FBF4850812}" name="(c) Circuit Segment ID Entirely Underground" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FFC1EE45-BB72-49F2-8E4D-8A7D3231D4F3}" name="(d) Circuit Segment ID Partially Underground" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C5D0B29B-3A85-4618-BDEB-E2A9077F9BEE}" name="(e) County" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C844F8F7-CAE4-40FE-8F62-B0937E95EA8B}" name="(f) Project Start Date - 2" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{57D484DB-5422-4DF9-A549-F137C4B1FF5D}" name="(g) Project Completion Date - 3" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{9840405D-D512-47BC-A469-4CF7A5C05DF6}" name="(h) Total Overhead Miles Removed - 4" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{14247499-7E71-48AB-8AD8-79587D943A4C}" name="(i) Total Cable Miles Installed - 5" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{ADEE8B42-E459-41B9-80ED-E5C0E33F742F}" name="(j) Total Trench Miles  - 6" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{CE3C9479-1658-4014-913B-CA1043B75EB7}" name="(k) Total Electric Cost - 7" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{35538AD6-2AA1-497B-9D02-8AEC6C97AB7E}" name="(l) Total Cost - Inc Non-Electric Utilities - 8" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{988CE22B-F098-426E-AF9B-6588316B1E23}" name="(m) Rule 20?" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{69BAD8E3-83D0-4EA1-9B1F-B50037BA4D14}" name="(n) WMP?" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{47B49D9A-50DB-4EB9-81A4-F4B540165DED}" name="Post-wildfire Rebuild?" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{6766DD01-E7A9-419A-AC60-E52A94B56EB1}" name="Shared Trench with Com?" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{37727CAE-8840-4266-BB51-A44E262B85E9}" name="Shared Trench with Gas?" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{7B8118E6-A8EC-412A-A71F-11941CE2584C}" name="Total Customers" dataDxfId="0"/>
     <tableColumn id="19" xr3:uid="{3956D643-72C6-4D5B-AAA7-9A4681088503}" name="Minutes of PSPS Outage by Circuit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2204,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279757-4CB1-FE4B-9103-D4BD12BC2571}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2226,7 +3319,7 @@
     <col min="13" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2234,70 +3327,79 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>2.46</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4">
         <v>15249570.432399999</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>1651</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>23206</v>
       </c>
       <c r="G4">
@@ -2324,32 +3426,40 @@
         <f>IF(L4="Y",60000*I4,H4)</f>
         <v>15249570.432399999</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="20">
         <f>I4*J4</f>
         <v>38313106</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <f>H4/N4</f>
         <v>0.39802490647456251</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <f>LOG10((O4))</f>
+        <v>-0.40008975102674099</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4:R15">FREQUENCY(P4:P22,Q5:Q15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>1.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5">
         <v>2839053.8111999994</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>915</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>23206</v>
       </c>
       <c r="G5">
@@ -2376,30 +3486,39 @@
         <f t="shared" ref="M5:M21" si="2">IF(L5="Y",60000*I5,H5)</f>
         <v>2839053.8111999994</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f t="shared" ref="N5:N21" si="3">I5*J5</f>
         <v>21233490</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <f t="shared" ref="O5:O22" si="4">H5/N5</f>
         <v>0.13370641431060082</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f t="shared" ref="P5:P22" si="5">LOG10((O5))</f>
+        <v>-0.87384775778753876</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6">
         <v>0.15</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6">
         <v>507963.82400000002</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
+      <c r="F6">
         <v>23206</v>
       </c>
       <c r="G6">
@@ -2420,29 +3539,36 @@
         <f t="shared" si="2"/>
         <v>507963.82400000002</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="16"/>
+      <c r="Q6">
+        <f>Q5+0.25</f>
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7">
         <v>11025559.9824</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <v>438</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <v>111792</v>
       </c>
       <c r="G7">
@@ -2469,32 +3595,43 @@
         <f t="shared" si="2"/>
         <v>11025559.9824</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f t="shared" si="3"/>
         <v>48964896</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <f t="shared" si="4"/>
         <v>0.22517274380405097</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-0.64748418012571596</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q15" si="6">Q6+0.25</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <v>1.26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8">
         <v>1717945.82</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>411</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8">
         <v>37264</v>
       </c>
       <c r="G8">
@@ -2521,32 +3658,43 @@
         <f t="shared" si="2"/>
         <v>1717945.82</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f t="shared" si="3"/>
         <v>15315504</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <f t="shared" si="4"/>
         <v>0.11217037454333857</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-0.95012182998941819</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>5.53</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>10586922.5788</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>260</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>111792</v>
       </c>
       <c r="G9">
@@ -2573,32 +3721,43 @@
         <f t="shared" si="2"/>
         <v>10586922.5788</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <f t="shared" si="3"/>
         <v>29065920</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <f t="shared" si="4"/>
         <v>0.36423834438407593</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-0.43861433674580913</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10">
         <v>1860248.1892000001</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>53</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10">
         <v>37264</v>
       </c>
       <c r="G10">
@@ -2625,32 +3784,43 @@
         <f t="shared" si="2"/>
         <v>1860248.1892000001</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <f t="shared" si="3"/>
         <v>1974992</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <f t="shared" si="4"/>
         <v>0.94190163261420812</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-2.5994450331880217E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>1.34</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11">
         <v>2472650.9432000001</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>287</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11">
         <v>37264</v>
       </c>
       <c r="G11">
@@ -2677,32 +3847,43 @@
         <f t="shared" si="2"/>
         <v>2472650.9432000001</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <f t="shared" si="3"/>
         <v>10694768</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <f t="shared" si="4"/>
         <v>0.23120192445502324</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>-0.63600855530030243</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>2.65</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>4936066.9344000006</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>488</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>37264</v>
       </c>
       <c r="G12">
@@ -2729,32 +3910,43 @@
         <f t="shared" si="2"/>
         <v>4936066.9344000006</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <f t="shared" si="3"/>
         <v>18184832</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <f t="shared" si="4"/>
         <v>0.27143868771512436</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-0.56632825297779954</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>3.72</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>8706723.9428000003</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>245</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>74528</v>
       </c>
       <c r="G13">
@@ -2781,32 +3973,43 @@
         <f t="shared" si="2"/>
         <v>8706723.9428000003</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <f t="shared" si="3"/>
         <v>18259360</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <f t="shared" si="4"/>
         <v>0.47683620580348929</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>-0.32163077637247955</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>1.58</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>7206937.2836000007</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>360</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14">
         <v>21784</v>
       </c>
       <c r="G14">
@@ -2833,32 +4036,43 @@
         <f t="shared" si="2"/>
         <v>7206937.2836000007</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="20">
         <f t="shared" si="3"/>
         <v>7842240</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <f t="shared" si="4"/>
         <v>0.91898963607336692</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>-3.6689386352221208E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15">
         <v>4.47</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15">
         <v>6145456.0559999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15">
         <v>57</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15">
         <v>56352</v>
       </c>
       <c r="G15">
@@ -2885,32 +4099,43 @@
         <f t="shared" si="2"/>
         <v>3420000</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>3212064</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <f t="shared" si="4"/>
         <v>1.9132420948025941</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.28176992757279312</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16">
         <v>1.77</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16">
         <v>2220529.1396000003</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16">
         <v>89</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16">
         <v>28176</v>
       </c>
       <c r="G16">
@@ -2937,32 +4162,36 @@
         <f t="shared" si="2"/>
         <v>2220529.1396000003</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>2507664</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <f t="shared" si="4"/>
         <v>0.8854970760038029</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>-5.2812868553533919E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <v>6.07</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17">
         <v>3886515.0424000002</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>865</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17">
         <v>28176</v>
       </c>
       <c r="G17">
@@ -2989,32 +4218,36 @@
         <f t="shared" si="2"/>
         <v>3886515.0424000002</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <f t="shared" si="3"/>
         <v>24372240</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="16">
         <f t="shared" si="4"/>
         <v>0.15946482729531633</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>-0.79733509314629825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18">
         <v>1.33</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18">
         <v>2247977.0044</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18">
         <v>356</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18">
         <v>28176</v>
       </c>
       <c r="G18">
@@ -3041,32 +4274,36 @@
         <f t="shared" si="2"/>
         <v>2247977.0044</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <f t="shared" si="3"/>
         <v>10030656</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="16">
         <f t="shared" si="4"/>
         <v>0.22411066677991948</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>-0.6495374722761299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19">
         <v>3.48</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19">
         <v>11244514.568400001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <v>2749</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19">
         <v>4112</v>
       </c>
       <c r="G19">
@@ -3093,32 +4330,36 @@
         <f t="shared" si="2"/>
         <v>11244514.568400001</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <f t="shared" si="3"/>
         <v>11303888</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <f t="shared" si="4"/>
         <v>0.99474752124224874</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-2.2871343752454655E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20">
         <v>1.92</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20">
         <v>4076097.0068000001</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20">
         <v>756</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20">
         <v>14052</v>
       </c>
       <c r="G20">
@@ -3145,32 +4386,36 @@
         <f t="shared" si="2"/>
         <v>4076097.0068000001</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="20">
         <f t="shared" si="3"/>
         <v>10623312</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <f t="shared" si="4"/>
         <v>0.38369361709417932</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-0.41601542541422859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21">
         <v>9.1900000000000013</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21">
         <v>21415117.8336</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21">
         <v>62</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21">
         <v>26626</v>
       </c>
       <c r="G21">
@@ -3197,32 +4442,36 @@
         <f t="shared" si="2"/>
         <v>3720000</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="20">
         <f t="shared" si="3"/>
         <v>1650812</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="16">
         <f t="shared" si="4"/>
         <v>12.972475262840348</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>1.1130228512133955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22">
         <v>57.92</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22">
         <v>118345850.3932</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22">
         <v>53</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22">
         <v>724240</v>
       </c>
       <c r="G22">
@@ -3236,7 +4485,7 @@
         <f>SUM(I4:I21)</f>
         <v>10042</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="11">
         <f t="shared" si="0"/>
         <v>11785.087671101372</v>
@@ -3249,32 +4498,37 @@
         <f>SUM(M4:M21)</f>
         <v>97925276.503599986</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="20">
         <f>SUM(N4:N21)</f>
         <v>273549744</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="16">
         <f t="shared" si="4"/>
         <v>0.43263009009871339</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M24" s="27">
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>-0.36388327798668241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M24" s="26">
         <f>(H22-M22)/H22</f>
         <v>0.1725499780664328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CABF202-BE1F-2C4C-8240-BB8270242D03}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3293,7 +4547,7 @@
     <col min="13" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -3301,7 +4555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
@@ -3320,51 +4574,54 @@
       <c r="F3" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>2.46</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4">
         <v>15249570.432399999</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>1651</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>23206</v>
       </c>
       <c r="G4">
@@ -3391,32 +4648,36 @@
         <f>IF(L4="Y",60000*I4,H4)</f>
         <v>15249570.432399999</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="20">
         <f>I4*J4</f>
         <v>38313106</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <f>H4/N4</f>
         <v>0.39802490647456251</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <f>LOG10(O4)</f>
+        <v>-0.40008975102674099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>1.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5">
         <v>2839053.8111999994</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>915</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>23206</v>
       </c>
       <c r="G5">
@@ -3443,30 +4704,33 @@
         <f t="shared" ref="M5:M21" si="2">IF(L5="Y",60000*I5,H5)</f>
         <v>2839053.8111999994</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f t="shared" ref="N5:N21" si="3">I5*J5</f>
         <v>21233490</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <f t="shared" ref="O5:O22" si="4">H5/N5</f>
         <v>0.13370641431060082</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f t="shared" ref="P5:P22" si="5">LOG10(O5)</f>
+        <v>-0.87384775778753876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6">
         <v>0.15</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6">
         <v>507963.82400000002</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
+      <c r="F6">
         <v>23206</v>
       </c>
       <c r="G6">
@@ -3487,29 +4751,29 @@
         <f t="shared" si="2"/>
         <v>507963.82400000002</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7">
         <v>11025559.9824</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <v>438</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <v>111792</v>
       </c>
       <c r="G7">
@@ -3536,32 +4800,36 @@
         <f t="shared" si="2"/>
         <v>11025559.9824</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f t="shared" si="3"/>
         <v>48964896</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <f t="shared" si="4"/>
         <v>0.22517274380405097</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-0.64748418012571596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <v>1.26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8">
         <v>1717945.82</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>411</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8">
         <v>37264</v>
       </c>
       <c r="G8">
@@ -3588,32 +4856,36 @@
         <f t="shared" si="2"/>
         <v>1717945.82</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f t="shared" si="3"/>
         <v>15315504</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <f t="shared" si="4"/>
         <v>0.11217037454333857</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-0.95012182998941819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>5.53</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>10586922.5788</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>260</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>111792</v>
       </c>
       <c r="G9">
@@ -3640,32 +4912,36 @@
         <f t="shared" si="2"/>
         <v>10586922.5788</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <f t="shared" si="3"/>
         <v>29065920</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <f t="shared" si="4"/>
         <v>0.36423834438407593</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-0.43861433674580913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10">
         <v>1860248.1892000001</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>53</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10">
         <v>37264</v>
       </c>
       <c r="G10">
@@ -3692,32 +4968,36 @@
         <f t="shared" si="2"/>
         <v>1860248.1892000001</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <f t="shared" si="3"/>
         <v>1974992</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <f t="shared" si="4"/>
         <v>0.94190163261420812</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-2.5994450331880217E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>1.34</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11">
         <v>2472650.9432000001</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>287</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11">
         <v>37264</v>
       </c>
       <c r="G11">
@@ -3744,32 +5024,36 @@
         <f t="shared" si="2"/>
         <v>2472650.9432000001</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <f t="shared" si="3"/>
         <v>10694768</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <f t="shared" si="4"/>
         <v>0.23120192445502324</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>-0.63600855530030243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>2.65</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>4936066.9344000006</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>488</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>37264</v>
       </c>
       <c r="G12">
@@ -3796,32 +5080,36 @@
         <f t="shared" si="2"/>
         <v>4936066.9344000006</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <f t="shared" si="3"/>
         <v>18184832</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <f t="shared" si="4"/>
         <v>0.27143868771512436</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-0.56632825297779954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>3.72</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>8706723.9428000003</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>245</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>74528</v>
       </c>
       <c r="G13">
@@ -3848,32 +5136,36 @@
         <f t="shared" si="2"/>
         <v>8706723.9428000003</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <f t="shared" si="3"/>
         <v>18259360</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <f t="shared" si="4"/>
         <v>0.47683620580348929</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>-0.32163077637247955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>1.58</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>7206937.2836000007</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>360</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14">
         <v>21784</v>
       </c>
       <c r="G14">
@@ -3900,32 +5192,36 @@
         <f t="shared" si="2"/>
         <v>7206937.2836000007</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="20">
         <f t="shared" si="3"/>
         <v>7842240</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <f t="shared" si="4"/>
         <v>0.91898963607336692</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>-3.6689386352221208E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15">
         <v>4.47</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15">
         <v>6145456.0559999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15">
         <v>57</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15">
         <v>56352</v>
       </c>
       <c r="G15">
@@ -3952,32 +5248,36 @@
         <f t="shared" si="2"/>
         <v>3420000</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>3212064</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <f t="shared" si="4"/>
         <v>1.9132420948025941</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.28176992757279312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16">
         <v>1.77</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16">
         <v>2220529.1396000003</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16">
         <v>89</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16">
         <v>28176</v>
       </c>
       <c r="G16">
@@ -4004,32 +5304,36 @@
         <f t="shared" si="2"/>
         <v>2220529.1396000003</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>2507664</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <f t="shared" si="4"/>
         <v>0.8854970760038029</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>-5.2812868553533919E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <v>6.07</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17">
         <v>3886515.0424000002</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>865</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17">
         <v>28176</v>
       </c>
       <c r="G17">
@@ -4056,32 +5360,36 @@
         <f t="shared" si="2"/>
         <v>3886515.0424000002</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <f t="shared" si="3"/>
         <v>24372240</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="16">
         <f t="shared" si="4"/>
         <v>0.15946482729531633</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>-0.79733509314629825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18">
         <v>1.33</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18">
         <v>2247977.0044</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18">
         <v>356</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18">
         <v>28176</v>
       </c>
       <c r="G18">
@@ -4108,32 +5416,36 @@
         <f t="shared" si="2"/>
         <v>2247977.0044</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <f t="shared" si="3"/>
         <v>10030656</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="16">
         <f t="shared" si="4"/>
         <v>0.22411066677991948</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>-0.6495374722761299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19">
         <v>3.48</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19">
         <v>11244514.568400001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <v>2749</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19">
         <v>4112</v>
       </c>
       <c r="G19">
@@ -4160,32 +5472,36 @@
         <f t="shared" si="2"/>
         <v>11244514.568400001</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <f t="shared" si="3"/>
         <v>11303888</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <f t="shared" si="4"/>
         <v>0.99474752124224874</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-2.2871343752454655E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20">
         <v>1.92</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20">
         <v>4076097.0068000001</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20">
         <v>756</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20">
         <v>14052</v>
       </c>
       <c r="G20">
@@ -4212,32 +5528,36 @@
         <f t="shared" si="2"/>
         <v>4076097.0068000001</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="20">
         <f t="shared" si="3"/>
         <v>10623312</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <f t="shared" si="4"/>
         <v>0.38369361709417932</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-0.41601542541422859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21">
         <v>9.1900000000000013</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21">
         <v>21415117.8336</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21">
         <v>62</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21">
         <v>26626</v>
       </c>
       <c r="G21">
@@ -4264,32 +5584,36 @@
         <f t="shared" si="2"/>
         <v>3720000</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="20">
         <f t="shared" si="3"/>
         <v>1650812</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="16">
         <f t="shared" si="4"/>
         <v>12.972475262840348</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>1.1130228512133955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22">
         <v>25</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22">
         <v>57.92</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22">
         <v>118345850.3932</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22">
         <v>53</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22">
         <v>724240</v>
       </c>
       <c r="G22">
@@ -4303,7 +5627,7 @@
         <f>SUM(I4:I21)</f>
         <v>10042</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <v>724240</v>
       </c>
       <c r="K22" s="11">
@@ -4318,13 +5642,17 @@
         <f>SUM(M4:M21)</f>
         <v>97925276.503599986</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="20">
         <f>SUM(N4:N21)</f>
         <v>273549744</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="16">
         <f t="shared" si="4"/>
         <v>0.43263009009871339</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>-0.36388327798668241</v>
       </c>
     </row>
   </sheetData>
@@ -6455,6 +7783,165 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <QuestionsinDR xmlns="2104ad18-0c40-4759-978d-9031b6355d10" xsi:nil="true"/>
+    <Comment xmlns="2104ad18-0c40-4759-978d-9031b6355d10" xsi:nil="true"/>
+    <SharedWithUsers xmlns="80a17f64-e774-4a01-b2f5-de7df872f7b3">
+      <UserInfo>
+        <DisplayName>Gahagan, Shaun</DisplayName>
+        <AccountId>390</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kloberdanz, Kari</DisplayName>
+        <AccountId>3271</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Valencia, Isaiah (Contractor)</DisplayName>
+        <AccountId>3488</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mauer, Katie</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Nimick, Jan A (Contractor)</DisplayName>
+        <AccountId>4096</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>McMillin, Lena</DisplayName>
+        <AccountId>86</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas, Willie</DisplayName>
+        <AccountId>42</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Gabriel, Robert</DisplayName>
+        <AccountId>1819</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Estrada, Juan</DisplayName>
+        <AccountId>2607</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Smith, Caitlin G</DisplayName>
+        <AccountId>2742</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Parikh, Minal K</DisplayName>
+        <AccountId>178</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fallon, Cassandra A</DisplayName>
+        <AccountId>2983</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Knowd, Tim M.</DisplayName>
+        <AccountId>169</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Woldemariam, Jonathan</DisplayName>
+        <AccountId>32</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DeLouis, Bobby</DisplayName>
+        <AccountId>3555</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Menon, Nisha</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Taylor, Cynthia S</DisplayName>
+        <AccountId>702</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Woldegiorgis, Shewit T</DisplayName>
+        <AccountId>940</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Davis, Erick (Contractor)</DisplayName>
+        <AccountId>2156</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fulton, Laura M</DisplayName>
+        <AccountId>689</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Makhamreh, Mazen (Contractor)</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sebastian Peral, Joaquin</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Black, John (Contractor)</DisplayName>
+        <AccountId>4098</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Flamenbaum, Robert</DisplayName>
+        <AccountId>45</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bertolini, Crystal A</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cui, Landy Ye</DisplayName>
+        <AccountId>162</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Biscay, Cameron H</DisplayName>
+        <AccountId>4152</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2104ad18-0c40-4759-978d-9031b6355d10">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="80a17f64-e774-4a01-b2f5-de7df872f7b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007BC5B34FB2B05C498322EC0E0E7F8BBD" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c243bf6f29386086e21656a0b091e581">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2104ad18-0c40-4759-978d-9031b6355d10" xmlns:ns3="80a17f64-e774-4a01-b2f5-de7df872f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf6d1ef2da01010e564fac80a0ca5f" ns2:_="" ns3:_="">
     <xsd:import namespace="2104ad18-0c40-4759-978d-9031b6355d10"/>
@@ -6719,166 +8206,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <QuestionsinDR xmlns="2104ad18-0c40-4759-978d-9031b6355d10" xsi:nil="true"/>
-    <Comment xmlns="2104ad18-0c40-4759-978d-9031b6355d10" xsi:nil="true"/>
-    <SharedWithUsers xmlns="80a17f64-e774-4a01-b2f5-de7df872f7b3">
-      <UserInfo>
-        <DisplayName>Gahagan, Shaun</DisplayName>
-        <AccountId>390</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kloberdanz, Kari</DisplayName>
-        <AccountId>3271</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Valencia, Isaiah (Contractor)</DisplayName>
-        <AccountId>3488</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mauer, Katie</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Nimick, Jan A (Contractor)</DisplayName>
-        <AccountId>4096</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>McMillin, Lena</DisplayName>
-        <AccountId>86</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas, Willie</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Gabriel, Robert</DisplayName>
-        <AccountId>1819</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Estrada, Juan</DisplayName>
-        <AccountId>2607</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Smith, Caitlin G</DisplayName>
-        <AccountId>2742</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Parikh, Minal K</DisplayName>
-        <AccountId>178</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fallon, Cassandra A</DisplayName>
-        <AccountId>2983</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Knowd, Tim M.</DisplayName>
-        <AccountId>169</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Woldemariam, Jonathan</DisplayName>
-        <AccountId>32</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DeLouis, Bobby</DisplayName>
-        <AccountId>3555</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Menon, Nisha</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Taylor, Cynthia S</DisplayName>
-        <AccountId>702</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Woldegiorgis, Shewit T</DisplayName>
-        <AccountId>940</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Davis, Erick (Contractor)</DisplayName>
-        <AccountId>2156</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fulton, Laura M</DisplayName>
-        <AccountId>689</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Makhamreh, Mazen (Contractor)</DisplayName>
-        <AccountId>30</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sebastian Peral, Joaquin</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Black, John (Contractor)</DisplayName>
-        <AccountId>4098</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Flamenbaum, Robert</DisplayName>
-        <AccountId>45</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bertolini, Crystal A</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cui, Landy Ye</DisplayName>
-        <AccountId>162</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Biscay, Cameron H</DisplayName>
-        <AccountId>4152</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2104ad18-0c40-4759-978d-9031b6355d10">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="80a17f64-e774-4a01-b2f5-de7df872f7b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0806269-5DAF-4D2F-8EB7-DCB8BD426701}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A277D199-83FF-4AB1-95C0-AB0424077DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2104ad18-0c40-4759-978d-9031b6355d10"/>
+    <ds:schemaRef ds:uri="80a17f64-e774-4a01-b2f5-de7df872f7b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08DAD021-F7FA-4FCD-A481-C57E344CCF0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6897,25 +8244,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A277D199-83FF-4AB1-95C0-AB0424077DFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2104ad18-0c40-4759-978d-9031b6355d10"/>
-    <ds:schemaRef ds:uri="80a17f64-e774-4a01-b2f5-de7df872f7b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0806269-5DAF-4D2F-8EB7-DCB8BD426701}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{b9b7cde0-d580-4baa-b993-829072e57bff}" enabled="1" method="Standard" siteId="{07420c3d-c141-4c67-b6f3-f448e5adb67b}" contentBits="0" removed="0"/>
